--- a/WSC/Test Cases/Infrastructure/WSC Project Plan Monitoring_Task_Test Cases.xlsx
+++ b/WSC/Test Cases/Infrastructure/WSC Project Plan Monitoring_Task_Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="599"/>
+    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="370">
   <si>
     <t>Contents</t>
   </si>
@@ -111,9 +111,14 @@
   </si>
   <si>
     <t>Credential for Infrastructure super admin:
-URL: https://soulwsc.eduleadonline.com/app/infrastructure
-User ID: Administrator
-Password: admin</t>
+URL: https://wscdemo.eduleadonline.com
+Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
+User ID                                                          Password
+---------------------------------------------------------------------------------
+project.manager@soulunileaders.com     erp@123
+building.admin@mail.com                         erp@123
+floor.supervisor@mail.com                       erp@123
+maintenance.dept@gmail.com                 erp@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -147,6 +152,9 @@
   </si>
   <si>
     <t>Task page List Page should be open</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>Step 2</t>
@@ -353,6 +361,9 @@
     <t>Step 24</t>
   </si>
   <si>
+    <t xml:space="preserve">click on advanced search option </t>
+  </si>
+  <si>
     <t>Step 25</t>
   </si>
   <si>
@@ -440,7 +451,7 @@
     <t>Step 37</t>
   </si>
   <si>
-    <t>Enter  fuutre date as Begin On (Days)</t>
+    <t>Enter  future date as Begin On (Days)</t>
   </si>
   <si>
     <t>Step 38</t>
@@ -488,7 +499,7 @@
     <t>Step 44</t>
   </si>
   <si>
-    <t>enter neative value in Duration (Days) Number</t>
+    <t>enter negative value in Duration (Days) Number</t>
   </si>
   <si>
     <t>Step 45</t>
@@ -721,6 +732,19 @@
   </si>
   <si>
     <t>Test Project Plan Monitoring_Task</t>
+  </si>
+  <si>
+    <t>Credential for Infrastructure super admin:
+URL: https://wscdemo.eduleadonline.com
+Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
+User ID                                                          Password
+---------------------------------------------------------------------------------
+project.manager@soulunileaders.com    erp@123
+building.admin@mail.com                          erp@123
+floor.supervisor@mail.com                        erp@123
+maintenance.dept@gmail.com                  erp@123
+employee_infra@mail.com                        erp@123
+emp_pro@gmail.com                                  erp@123</t>
   </si>
   <si>
     <t>Home &gt; Project Plan Monitoring &gt;Task&gt;Task Type</t>
@@ -1990,7 +2014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2086,17 +2110,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2444,7 +2463,7 @@
   <sheetPr/>
   <dimension ref="A2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2464,49 +2483,49 @@
   </cols>
   <sheetData>
     <row r="2" ht="21" spans="2:2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="88" customHeight="1" spans="1:12">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:12">
-      <c r="A5" s="53"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="61"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="58"/>
     </row>
     <row r="6" ht="78" customHeight="1" spans="2:12">
       <c r="B6" s="4" t="s">
@@ -2514,25 +2533,25 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="56" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="60"/>
+      <c r="B7" s="57"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2552,8 +2571,8 @@
   <sheetPr/>
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -2666,7 +2685,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="145" spans="2:8">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -2757,79 +2776,89 @@
         <v>36</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="35" t="s">
+        <v>37</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" ht="34" customHeight="1" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" ht="80" customHeight="1" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" ht="33" customHeight="1" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="9"/>
@@ -2837,14 +2866,14 @@
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="9"/>
@@ -2852,14 +2881,14 @@
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="9"/>
@@ -2867,14 +2896,14 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="9"/>
@@ -2882,14 +2911,14 @@
     </row>
     <row r="23" ht="28" customHeight="1" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="9"/>
@@ -2897,14 +2926,14 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="9"/>
@@ -2912,329 +2941,329 @@
     </row>
     <row r="25" customFormat="1" ht="29" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" customFormat="1" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" customFormat="1" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="47"/>
     </row>
     <row r="28" customFormat="1" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="47"/>
     </row>
     <row r="29" customFormat="1" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" customFormat="1" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" customFormat="1" ht="29" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="47"/>
     </row>
     <row r="32" customFormat="1" ht="116" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="47"/>
     </row>
     <row r="33" customFormat="1" ht="72.5" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="47"/>
     </row>
     <row r="34" customFormat="1" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="36" t="s">
         <v>92</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>93</v>
       </c>
       <c r="C34" s="37"/>
       <c r="D34" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="47"/>
     </row>
     <row r="35" customFormat="1" ht="29" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="37"/>
       <c r="D35" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="47"/>
     </row>
     <row r="36" customFormat="1" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36" s="37"/>
       <c r="D36" s="34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" customFormat="1" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C37" s="37"/>
       <c r="D37" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" customFormat="1" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" customFormat="1" ht="29" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" customFormat="1" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="50"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" customFormat="1" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C41" s="37"/>
       <c r="D41" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="50"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="47"/>
     </row>
     <row r="42" customFormat="1" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="47"/>
     </row>
     <row r="43" customFormat="1" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="50"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="47"/>
     </row>
     <row r="44" customFormat="1" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="50"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="47"/>
     </row>
     <row r="45" customFormat="1" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="51"/>
+      <c r="G45" s="47"/>
     </row>
     <row r="46" s="24" customFormat="1" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C46" s="37"/>
       <c r="D46" s="34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E46" s="40"/>
       <c r="F46" s="9"/>
@@ -3242,466 +3271,466 @@
     </row>
     <row r="47" s="25" customFormat="1" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" s="24" customFormat="1" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C48" s="37"/>
       <c r="D48" s="34" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" s="24" customFormat="1" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C49" s="37"/>
       <c r="D49" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" s="24" customFormat="1" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C50" s="37"/>
       <c r="D50" s="34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" s="24" customFormat="1" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C51" s="37"/>
       <c r="D51" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" s="24" customFormat="1" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C52" s="37"/>
       <c r="D52" s="34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" s="24" customFormat="1" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" s="24" customFormat="1" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" s="24" customFormat="1" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" s="24" customFormat="1" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" s="24" customFormat="1" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" s="24" customFormat="1" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" s="24" customFormat="1" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" s="24" customFormat="1" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" s="24" customFormat="1" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" s="24" customFormat="1" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C62" s="37"/>
       <c r="D62" s="34" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" s="24" customFormat="1" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" s="24" customFormat="1" spans="1:4">
       <c r="A64" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" s="24" customFormat="1" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C65" s="37"/>
       <c r="D65" s="34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" s="24" customFormat="1" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="34" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" s="24" customFormat="1" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" s="24" customFormat="1" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" s="24" customFormat="1" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" s="24" customFormat="1" spans="1:4">
       <c r="A70" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C70" s="37"/>
       <c r="D70" s="34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" s="24" customFormat="1" ht="29" spans="1:4">
       <c r="A71" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C71" s="37"/>
       <c r="D71" s="34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" s="24" customFormat="1" spans="1:4">
       <c r="A72" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C72" s="37"/>
       <c r="D72" s="34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" s="24" customFormat="1" spans="1:4">
       <c r="A73" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" s="24" customFormat="1" ht="29" spans="1:4">
       <c r="A74" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C74" s="37"/>
       <c r="D74" s="34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" s="24" customFormat="1" ht="29" spans="1:4">
       <c r="A75" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C75" s="37"/>
       <c r="D75" s="34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" s="24" customFormat="1" spans="1:4">
       <c r="A76" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C76" s="37"/>
       <c r="D76" s="34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" s="24" customFormat="1" spans="1:4">
       <c r="A77" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" s="24" customFormat="1" spans="1:4">
       <c r="A78" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C78" s="37"/>
       <c r="D78" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C79" s="34"/>
       <c r="D79" s="37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C80" s="34"/>
       <c r="D80" s="37" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C81" s="34"/>
       <c r="D81" s="34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C82" s="34"/>
       <c r="D82" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C83" s="34"/>
       <c r="D83" s="37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C84" s="34"/>
       <c r="D84" s="37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" s="24" customFormat="1" spans="1:7">
       <c r="A85" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C85" s="38"/>
       <c r="D85" s="39"/>
@@ -3712,21 +3741,20 @@
     <row r="86" s="25" customFormat="1" spans="1:4">
       <c r="A86" s="41"/>
       <c r="B86" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="C86" s="25"/>
+        <v>220</v>
+      </c>
       <c r="D86" s="43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" s="24" customFormat="1" spans="1:4">
       <c r="A87" s="44"/>
       <c r="B87" s="45" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C87" s="25"/>
       <c r="D87" s="43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" s="24" customFormat="1" spans="1:4">
@@ -3751,8 +3779,8 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3770,14 +3798,14 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
@@ -3865,9 +3893,9 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="159.5" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3936,7 +3964,7 @@
     <row r="13" s="1" customFormat="1" ht="31" customHeight="1" spans="1:7">
       <c r="A13" s="14"/>
       <c r="B13" s="32" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34"/>
@@ -3949,11 +3977,11 @@
         <v>35</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="9"/>
@@ -3961,14 +3989,14 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="34" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="9"/>
@@ -3976,14 +4004,14 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="34" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="9"/>
@@ -3991,14 +4019,14 @@
     </row>
     <row r="17" ht="47" customHeight="1" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="34" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="9"/>
@@ -4006,14 +4034,14 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="34" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="9"/>
@@ -4021,14 +4049,14 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="34" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="9"/>
@@ -4036,14 +4064,14 @@
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="34" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4051,14 +4079,14 @@
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4066,14 +4094,14 @@
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="34" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4081,14 +4109,14 @@
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="34" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4096,14 +4124,14 @@
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="34" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4111,14 +4139,14 @@
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="34" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -4126,14 +4154,14 @@
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="34" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -4141,14 +4169,14 @@
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -4156,14 +4184,14 @@
     </row>
     <row r="28" ht="27" customHeight="1" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4171,14 +4199,14 @@
     </row>
     <row r="29" ht="27" customHeight="1" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -4186,14 +4214,14 @@
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="37" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -4201,10 +4229,10 @@
     </row>
     <row r="31" s="24" customFormat="1" spans="1:7">
       <c r="A31" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="39"/>
@@ -4215,20 +4243,20 @@
     <row r="32" s="25" customFormat="1" spans="1:4">
       <c r="A32" s="41"/>
       <c r="B32" s="42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" s="24" customFormat="1" spans="1:4">
       <c r="A33" s="44"/>
       <c r="B33" s="45" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" s="24" customFormat="1" spans="1:4">
@@ -4238,18 +4266,18 @@
       <c r="D34" s="25"/>
     </row>
     <row r="35" s="24" customFormat="1" ht="29" spans="1:4">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" s="24" customFormat="1" spans="1:4">
-      <c r="A36" s="46"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" s="24" customFormat="1"/>
     <row r="38" s="24" customFormat="1"/>
@@ -4312,14 +4340,14 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -4370,12 +4398,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -4404,7 +4432,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4463,7 +4491,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
@@ -4476,11 +4504,11 @@
         <v>35</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="17" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4488,14 +4516,14 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="17" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4503,14 +4531,14 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4518,7 +4546,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="14"/>
@@ -4530,7 +4558,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="13" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
@@ -4540,14 +4568,14 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="17" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4555,14 +4583,14 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4570,14 +4598,14 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4585,14 +4613,14 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4601,7 +4629,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
@@ -4611,14 +4639,14 @@
     </row>
     <row r="24" ht="72.5" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4627,7 +4655,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -4637,14 +4665,14 @@
     </row>
     <row r="26" ht="58" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -4652,14 +4680,14 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -4667,14 +4695,14 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4682,10 +4710,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
@@ -4695,10 +4723,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
@@ -4709,7 +4737,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="15"/>
       <c r="B31" s="20" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
@@ -4719,14 +4747,14 @@
     </row>
     <row r="32" ht="116" spans="1:7">
       <c r="A32" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -4734,14 +4762,14 @@
     </row>
     <row r="33" ht="29" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -4749,14 +4777,14 @@
     </row>
     <row r="34" ht="29" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4764,14 +4792,14 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4779,14 +4807,14 @@
     </row>
     <row r="36" ht="43.5" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4794,14 +4822,14 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4809,14 +4837,14 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -4824,14 +4852,14 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -4839,14 +4867,14 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -4854,14 +4882,14 @@
     </row>
     <row r="41" ht="72.5" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4869,14 +4897,14 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4884,14 +4912,14 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4899,14 +4927,14 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4914,14 +4942,14 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -4929,14 +4957,14 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="9" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -4944,10 +4972,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="9"/>
@@ -4957,14 +4985,14 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -4972,10 +5000,10 @@
     </row>
     <row r="49" ht="29" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="9"/>
@@ -4985,14 +5013,14 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -5000,10 +5028,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="9"/>
@@ -5013,10 +5041,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="9"/>
@@ -5026,10 +5054,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="9"/>
@@ -5039,10 +5067,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="9"/>
@@ -5062,7 +5090,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="20" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="9"/>
@@ -5072,14 +5100,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -5097,7 +5125,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="20" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="9"/>
@@ -5107,14 +5135,14 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -5122,14 +5150,14 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -5137,14 +5165,14 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -5152,31 +5180,31 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="9" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -5184,14 +5212,14 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -5199,14 +5227,14 @@
     </row>
     <row r="66" ht="43.5" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -5214,14 +5242,14 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -5229,14 +5257,14 @@
     </row>
     <row r="68" ht="159.5" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -5244,14 +5272,14 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -5259,14 +5287,14 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="9" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -5274,14 +5302,14 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -5289,14 +5317,14 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="9"/>
@@ -5304,14 +5332,14 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="9"/>
@@ -5319,14 +5347,14 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="9"/>
@@ -5334,14 +5362,14 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="9"/>
@@ -5349,14 +5377,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="9" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -5364,14 +5392,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -5380,7 +5408,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -5390,14 +5418,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="3"/>
@@ -5405,14 +5433,14 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="3"/>
@@ -5420,14 +5448,14 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
